--- a/Hansen_green_calculator/PlottedInks.xlsx
+++ b/Hansen_green_calculator/PlottedInks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a4263\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC9122-6807-4042-8172-5EE5E8B9D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E6A5A-3AF7-4D97-BA98-C801014E6E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" activeTab="1" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
+    <workbookView xWindow="7930" yWindow="470" windowWidth="9800" windowHeight="7270" activeTab="1" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
   </bookViews>
   <sheets>
     <sheet name="Solvents" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>D</t>
   </si>
@@ -97,6 +97,33 @@
   </si>
   <si>
     <t>CsFAPbI3</t>
+  </si>
+  <si>
+    <t>Keely</t>
+  </si>
+  <si>
+    <t>YanYan</t>
+  </si>
+  <si>
+    <t>DMSO(0.28)-ACN(13)-EtOH(34)-MeTHF(25)</t>
+  </si>
+  <si>
+    <t>DMSO(0.425)-ACN(0.075)-EtOH(0.075)-MeTHF(0.425)</t>
+  </si>
+  <si>
+    <t>Solvents</t>
+  </si>
+  <si>
+    <t>MABrMAClCsIPbBr2PbI2FAl</t>
+  </si>
+  <si>
+    <t>DMSO(0.2)-DMF(0.8)</t>
+  </si>
+  <si>
+    <t>ACN(0.45)-2ME(0.46)-DMS(0.09)</t>
+  </si>
+  <si>
+    <t>Acetaldehyde(0.68)-2ME(0.32)</t>
   </si>
 </sst>
 </file>
@@ -959,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A344D2D7-C4A6-428E-83BB-2E2648AA217C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,15 +1139,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E6983A-F85F-4DE5-8AC9-7FD7AFF7E859}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1136,8 +1163,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1187,7 @@
         <v>13.314999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1207,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1227,7 @@
         <v>6.9949999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1205,19 +1235,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <f>(0.46*Solvents!B6)+(0.46*Solvents!B7)+(0.08*Solvents!B9)</f>
-        <v>15.516000000000002</v>
+        <v>12.11</v>
       </c>
       <c r="D5">
-        <f>(0.46*Solvents!C6)+(0.46*Solvents!C7)+(0.08*Solvents!C9)</f>
-        <v>10.830000000000002</v>
+        <v>11.33</v>
       </c>
       <c r="E5">
-        <f>(0.46*Solvents!D6)+(0.46*Solvents!D7)+(0.08*Solvents!D9)</f>
-        <v>5.0640000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1225,16 +1252,113 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <f>(0.46*Solvents!B6)+(0.46*Solvents!B7)+(0.08*Solvents!B9)</f>
-        <v>15.516000000000002</v>
+        <v>12.11</v>
       </c>
       <c r="D6">
-        <f>(0.46*Solvents!C6)+(0.46*Solvents!C7)+(0.08*Solvents!C9)</f>
-        <v>10.830000000000002</v>
+        <v>11.33</v>
       </c>
       <c r="E6">
-        <f>(0.46*Solvents!D6)+(0.46*Solvents!D7)+(0.08*Solvents!D9)</f>
-        <v>5.0640000000000001</v>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>12.12</v>
+      </c>
+      <c r="D7">
+        <v>11.23</v>
+      </c>
+      <c r="E7">
+        <v>7.33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>12.5</v>
+      </c>
+      <c r="D8">
+        <v>9.9</v>
+      </c>
+      <c r="E8">
+        <v>7.9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>16.5</v>
+      </c>
+      <c r="D9">
+        <v>13.5</v>
+      </c>
+      <c r="E9">
+        <v>10.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>16.5</v>
+      </c>
+      <c r="D10">
+        <v>13.5</v>
+      </c>
+      <c r="E10">
+        <v>10.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>18.21</v>
+      </c>
+      <c r="D12">
+        <v>11.23</v>
+      </c>
+      <c r="E12">
+        <v>7.7850000000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Hansen_green_calculator/PlottedInks.xlsx
+++ b/Hansen_green_calculator/PlottedInks.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a4263\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82E6A5A-3AF7-4D97-BA98-C801014E6E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EA059-4FBE-41E7-8B98-A429EFD9C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="470" windowWidth="9800" windowHeight="7270" activeTab="1" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
   </bookViews>
   <sheets>
     <sheet name="Solvents" sheetId="2" r:id="rId1"/>
     <sheet name="Inks" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>D</t>
   </si>
@@ -124,13 +126,124 @@
   </si>
   <si>
     <t>Acetaldehyde(0.68)-2ME(0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working </t>
+  </si>
+  <si>
+    <t>Solute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute </t>
+  </si>
+  <si>
+    <t>MAPbI3</t>
+  </si>
+  <si>
+    <t>IPA 0.4 MAP 0.6</t>
+  </si>
+  <si>
+    <t>IPA 0.383 MAP 0.6 H2O 0.017</t>
+  </si>
+  <si>
+    <t>ACN 0.75 MA/EtOH 0.197 HPC0.017</t>
+  </si>
+  <si>
+    <t>Cs0.35FA0.65PbI3</t>
+  </si>
+  <si>
+    <t>MA0.1FA0.8PbI3</t>
+  </si>
+  <si>
+    <t>MA0.15FA0.85PbI3</t>
+  </si>
+  <si>
+    <t>DMSO 0.45 ACN 0.45 MeTHF 0.1</t>
+  </si>
+  <si>
+    <t>DMSO 0.45 ACN 0.5 MeTHF 0.05</t>
+  </si>
+  <si>
+    <t>Cs0.29FA0.71</t>
+  </si>
+  <si>
+    <t>MAAc made from 1:1 molar ratio of acetic acid and methylamine in ethanol/methanol</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>heat of Vap</t>
+  </si>
+  <si>
+    <t>hov_temp</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>vis_temp</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>DMSO(0.425)-ACN(0.425)-EtOH(0.075)-MeTHF(0.075)</t>
+  </si>
+  <si>
+    <t>FAPbI3</t>
+  </si>
+  <si>
+    <t>Not stable</t>
+  </si>
+  <si>
+    <t>Semi-stable</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>IPA(0.383)-MAP(0.6)-H2O(0.017)</t>
+  </si>
+  <si>
+    <t>IPA(0.4)-MAP(0.6)</t>
+  </si>
+  <si>
+    <t>ACN(0.75)-MA/EtOH(0.197)-HPC(0.053)</t>
+  </si>
+  <si>
+    <t>DMSO(0.672)-ACN(0.072)-EtOH(0.178)-2MeTHF(0.78)</t>
+  </si>
+  <si>
+    <t>DMSO(0.45)-ACN(0.45)-MeTHF(0.1)</t>
+  </si>
+  <si>
+    <t>maEtOH(0.35)-ACN(0.6)-HPC(0.05)</t>
+  </si>
+  <si>
+    <t>2ME(0.46)-ACN(0.46)-NMP(0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ME(0.46)-ACN(0.46)-NMP(0.08) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,9 +1103,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1133,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1147,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1161,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1175,7 @@
         <v>16.753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1189,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1203,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1217,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1231,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1141,13 +1254,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E6983A-F85F-4DE5-8AC9-7FD7AFF7E859}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1187,7 +1303,7 @@
         <v>13.314999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1323,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1343,7 @@
         <v>6.9949999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1244,7 +1360,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1261,7 +1377,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1359,6 +1475,615 @@
       </c>
       <c r="F12" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30846225-3B33-4F5B-A1B1-2DDBA148FBDD}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5922E4D-1C97-4447-AC86-B00E1473844D}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>15.673999999999999</v>
+      </c>
+      <c r="D2">
+        <v>31.815999999999999</v>
+      </c>
+      <c r="E2">
+        <v>12.018000000000001</v>
+      </c>
+      <c r="F2">
+        <v>18.881</v>
+      </c>
+      <c r="G2">
+        <v>92.864000000000004</v>
+      </c>
+      <c r="H2">
+        <v>41.756</v>
+      </c>
+      <c r="I2">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="J2">
+        <v>35.325000000000003</v>
+      </c>
+      <c r="K2">
+        <v>24.574999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>15.62</v>
+      </c>
+      <c r="D3">
+        <v>31.94</v>
+      </c>
+      <c r="E3">
+        <v>12.04</v>
+      </c>
+      <c r="F3">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="G3">
+        <v>92.92</v>
+      </c>
+      <c r="H3">
+        <v>42.527999999999999</v>
+      </c>
+      <c r="I3">
+        <v>9.4</v>
+      </c>
+      <c r="J3">
+        <v>34.848999999999997</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>1.35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="D4">
+        <v>8.157</v>
+      </c>
+      <c r="E4">
+        <v>15.512</v>
+      </c>
+      <c r="F4">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="G4">
+        <v>62.381999999999998</v>
+      </c>
+      <c r="H4">
+        <v>22.356999999999999</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>19646.907999999999</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>16.774999999999999</v>
+      </c>
+      <c r="D5">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="E5">
+        <v>15.617000000000001</v>
+      </c>
+      <c r="F5">
+        <v>20.997</v>
+      </c>
+      <c r="G5">
+        <v>126.87</v>
+      </c>
+      <c r="H5">
+        <v>38.232999999999997</v>
+      </c>
+      <c r="I5">
+        <v>71.625</v>
+      </c>
+      <c r="J5">
+        <v>60.570999999999998</v>
+      </c>
+      <c r="K5">
+        <v>20.75</v>
+      </c>
+      <c r="L5">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>16.738</v>
+      </c>
+      <c r="D6">
+        <v>11.32</v>
+      </c>
+      <c r="E6">
+        <v>11.048999999999999</v>
+      </c>
+      <c r="F6">
+        <v>19.7</v>
+      </c>
+      <c r="G6">
+        <v>110.116</v>
+      </c>
+      <c r="H6">
+        <v>39.133000000000003</v>
+      </c>
+      <c r="I6">
+        <v>58.5</v>
+      </c>
+      <c r="J6">
+        <v>64.412000000000006</v>
+      </c>
+      <c r="K6">
+        <v>22.95</v>
+      </c>
+      <c r="L6">
+        <v>1.216</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>11.08</v>
+      </c>
+      <c r="E7">
+        <v>14.24</v>
+      </c>
+      <c r="F7">
+        <v>5.96</v>
+      </c>
+      <c r="G7">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="H7">
+        <v>47.54</v>
+      </c>
+      <c r="I7">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>74</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>17.597000000000001</v>
+      </c>
+      <c r="D8">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="E8">
+        <v>14.234</v>
+      </c>
+      <c r="F8">
+        <v>25.393999999999998</v>
+      </c>
+      <c r="G8">
+        <v>153.04300000000001</v>
+      </c>
+      <c r="H8">
+        <v>43.844000000000001</v>
+      </c>
+      <c r="I8">
+        <v>63.49</v>
+      </c>
+      <c r="J8">
+        <v>70.384</v>
+      </c>
+      <c r="K8">
+        <v>21.28</v>
+      </c>
+      <c r="L8">
+        <v>1.911</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>16.855</v>
+      </c>
+      <c r="D9">
+        <v>7.7649999999999997</v>
+      </c>
+      <c r="E9">
+        <v>15.93</v>
+      </c>
+      <c r="F9">
+        <v>20.954999999999998</v>
+      </c>
+      <c r="G9">
+        <v>129.77000000000001</v>
+      </c>
+      <c r="H9">
+        <v>37.749000000000002</v>
+      </c>
+      <c r="I9">
+        <v>75.5</v>
+      </c>
+      <c r="J9">
+        <v>62.249000000000002</v>
+      </c>
+      <c r="K9">
+        <v>20.5</v>
+      </c>
+      <c r="L9">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>16.478000000000002</v>
+      </c>
+      <c r="D10">
+        <v>10.129</v>
+      </c>
+      <c r="E10">
+        <v>14.227</v>
+      </c>
+      <c r="F10">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G10">
+        <v>51.06</v>
+      </c>
+      <c r="H10">
+        <v>17.885999999999999</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>18535.5</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>0.21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>12.112</v>
+      </c>
+      <c r="D11">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="E11">
+        <v>11.334</v>
+      </c>
+      <c r="F11">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="G11">
+        <v>53.695999999999998</v>
+      </c>
+      <c r="H11">
+        <v>17.939</v>
+      </c>
+      <c r="I11">
+        <v>36.72</v>
+      </c>
+      <c r="J11">
+        <v>26.812999999999999</v>
+      </c>
+      <c r="K11">
+        <v>11.2</v>
+      </c>
+      <c r="L11">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>12.112</v>
+      </c>
+      <c r="D12">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="E12">
+        <v>11.334</v>
+      </c>
+      <c r="F12">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="G12">
+        <v>53.695999999999998</v>
+      </c>
+      <c r="H12">
+        <v>17.939</v>
+      </c>
+      <c r="I12">
+        <v>36.72</v>
+      </c>
+      <c r="J12">
+        <v>26.812999999999999</v>
+      </c>
+      <c r="K12">
+        <v>11.2</v>
+      </c>
+      <c r="L12">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Hansen_green_calculator/PlottedInks.xlsx
+++ b/Hansen_green_calculator/PlottedInks.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a4263\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61EA059-4FBE-41E7-8B98-A429EFD9C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6AB4C7-3C71-4A0B-B92B-C7624B26B20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{326D9CA9-DCE2-4417-841B-8A5822E8129E}"/>
   </bookViews>
   <sheets>
     <sheet name="Solvents" sheetId="2" r:id="rId1"/>
     <sheet name="Inks" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>D</t>
   </si>
@@ -197,46 +198,64 @@
     <t>Viscosity</t>
   </si>
   <si>
+    <t>ACN 0.75 MA/EtOH 0.197 HPC0.053</t>
+  </si>
+  <si>
     <t>DMSO(0.425)-ACN(0.425)-EtOH(0.075)-MeTHF(0.075)</t>
   </si>
   <si>
+    <t>DMSO(0.672) ACN(0.072) EtOH(0.178) 2MeTHF(0.78)</t>
+  </si>
+  <si>
+    <t>DMSO(0.45) ACN(0.45) MeTHF(0.1)</t>
+  </si>
+  <si>
     <t>FAPbI3</t>
   </si>
   <si>
-    <t>Not stable</t>
-  </si>
-  <si>
-    <t>Semi-stable</t>
-  </si>
-  <si>
-    <t>Stable</t>
-  </si>
-  <si>
-    <t>Stability</t>
-  </si>
-  <si>
-    <t>IPA(0.383)-MAP(0.6)-H2O(0.017)</t>
-  </si>
-  <si>
-    <t>IPA(0.4)-MAP(0.6)</t>
-  </si>
-  <si>
-    <t>ACN(0.75)-MA/EtOH(0.197)-HPC(0.053)</t>
-  </si>
-  <si>
-    <t>DMSO(0.672)-ACN(0.072)-EtOH(0.178)-2MeTHF(0.78)</t>
-  </si>
-  <si>
-    <t>DMSO(0.45)-ACN(0.45)-MeTHF(0.1)</t>
-  </si>
-  <si>
-    <t>maEtOH(0.35)-ACN(0.6)-HPC(0.05)</t>
-  </si>
-  <si>
-    <t>2ME(0.46)-ACN(0.46)-NMP(0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ME(0.46)-ACN(0.46)-NMP(0.08) </t>
+    <t>2ME(0.46) ACN(0.46) NMP(0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ME(0.46) ACN(0.46) NMP(0.08) </t>
+  </si>
+  <si>
+    <t>maEtOH(0.35) ACN(0.6) HPC(0.05)</t>
+  </si>
+  <si>
+    <t>Dissolved</t>
+  </si>
+  <si>
+    <t>not very stable</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>Hov Temp</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Vis Temp</t>
+  </si>
+  <si>
+    <t>ACN(19)-NMP(6.48)-2ME(74.52)</t>
+  </si>
+  <si>
+    <t>ACN(33)-NMP(5.36)-2ME(61.64)</t>
+  </si>
+  <si>
+    <t>ACN(46)-NMP(4.32)-2ME(49.68)</t>
+  </si>
+  <si>
+    <t>ACN(59)-NMP(3.28)-2ME(37.72)</t>
+  </si>
+  <si>
+    <t>JZ</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
 </sst>
 </file>
@@ -379,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +576,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -720,8 +763,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1103,7 +1150,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1258,7 +1305,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="24.75" customWidth="1"/>
   </cols>
@@ -1490,11 +1537,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="4" max="4" width="22.08203125" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1582,16 +1629,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5922E4D-1C97-4447-AC86-B00E1473844D}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1631,459 +1677,643 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.673999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31.815999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12.018000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>18.881</v>
+      </c>
+      <c r="G2" s="3">
+        <v>92.864000000000004</v>
+      </c>
+      <c r="H2" s="3">
+        <v>41.756</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="J2" s="3">
+        <v>35.325000000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <v>24.574999999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.3149999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15.62</v>
+      </c>
+      <c r="D3" s="3">
+        <v>31.94</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12.04</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>92.92</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42.527999999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>34.848999999999997</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.157</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15.512</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>62.381999999999998</v>
+      </c>
+      <c r="H4" s="3">
+        <v>22.356999999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19646.907999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16.774999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15.617000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>20.997</v>
+      </c>
+      <c r="G5" s="3">
+        <v>126.87</v>
+      </c>
+      <c r="H5" s="3">
+        <v>38.232999999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>71.625</v>
+      </c>
+      <c r="J5" s="3">
+        <v>60.570999999999998</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20.75</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16.738</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11.32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.048999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>110.116</v>
+      </c>
+      <c r="H6" s="1">
+        <v>39.133000000000003</v>
+      </c>
+      <c r="I6" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>64.412000000000006</v>
+      </c>
+      <c r="K6" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11.08</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14.24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.96</v>
+      </c>
+      <c r="G7" s="3">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>47.54</v>
+      </c>
+      <c r="I7" s="3">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3">
+        <v>74</v>
+      </c>
+      <c r="K7" s="3">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.597000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14.234</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25.393999999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>153.04300000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43.844000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>63.49</v>
+      </c>
+      <c r="J8" s="2">
+        <v>70.384</v>
+      </c>
+      <c r="K8" s="2">
+        <v>21.28</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.911</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16.855</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.7649999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20.954999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>129.77000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>37.749000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>62.249000000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.3149999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16.478000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10.129</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14.227</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="G10" s="3">
+        <v>51.06</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17.885999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>48</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18535.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12.112</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11.334</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>53.695999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>17.939</v>
+      </c>
+      <c r="I11" s="3">
+        <v>36.72</v>
+      </c>
+      <c r="J11" s="3">
+        <v>26.812999999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12.112</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11.334</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>53.695999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17.939</v>
+      </c>
+      <c r="I12" s="3">
+        <v>36.72</v>
+      </c>
+      <c r="J12" s="3">
+        <v>26.812999999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45988F35-4C49-4381-BDD7-0BE8D5C00DB4}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>15.673999999999999</v>
+        <v>9.3640000000000008</v>
       </c>
       <c r="D2">
-        <v>31.815999999999999</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="E2">
-        <v>12.018000000000001</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="F2">
-        <v>18.881</v>
+        <v>19.202999999999999</v>
       </c>
       <c r="G2">
-        <v>92.864000000000004</v>
+        <v>120.998</v>
       </c>
       <c r="H2">
-        <v>41.756</v>
+        <v>5.6639999999999997</v>
       </c>
       <c r="I2">
-        <v>8.9749999999999996</v>
+        <v>15.2</v>
       </c>
       <c r="J2">
-        <v>35.325000000000003</v>
+        <v>70.924999999999997</v>
       </c>
       <c r="K2">
-        <v>24.574999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
+        <v>1.242</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>15.62</v>
+        <v>10.39</v>
       </c>
       <c r="D3">
-        <v>31.94</v>
+        <v>7.1440000000000001</v>
       </c>
       <c r="E3">
-        <v>12.04</v>
+        <v>9.0350000000000001</v>
       </c>
       <c r="F3">
-        <v>19.239999999999998</v>
+        <v>18.321000000000002</v>
       </c>
       <c r="G3">
-        <v>92.92</v>
+        <v>114.18899999999999</v>
       </c>
       <c r="H3">
-        <v>42.527999999999999</v>
+        <v>9.8369999999999997</v>
       </c>
       <c r="I3">
-        <v>9.4</v>
+        <v>26.4</v>
       </c>
       <c r="J3">
-        <v>34.848999999999997</v>
+        <v>65.762</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>6.6</v>
       </c>
       <c r="L3">
-        <v>1.35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
+        <v>1.0880000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>15.957000000000001</v>
+        <v>11.343</v>
       </c>
       <c r="D4">
-        <v>8.157</v>
+        <v>6.9420000000000002</v>
       </c>
       <c r="E4">
-        <v>15.512</v>
+        <v>10.775</v>
       </c>
       <c r="F4">
-        <v>10.574999999999999</v>
+        <v>17.501999999999999</v>
       </c>
       <c r="G4">
-        <v>62.381999999999998</v>
+        <v>107.77500000000001</v>
       </c>
       <c r="H4">
-        <v>22.356999999999999</v>
+        <v>13.712999999999999</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J4">
-        <v>19646.907999999999</v>
+        <v>60.966999999999999</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L4">
-        <v>0.26200000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>16.774999999999999</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="D5">
-        <v>8.7050000000000001</v>
+        <v>6.7389999999999999</v>
       </c>
       <c r="E5">
-        <v>15.617000000000001</v>
+        <v>12.513999999999999</v>
       </c>
       <c r="F5">
-        <v>20.997</v>
+        <v>16.683</v>
       </c>
       <c r="G5">
-        <v>126.87</v>
+        <v>101.542</v>
       </c>
       <c r="H5">
-        <v>38.232999999999997</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="I5">
-        <v>71.625</v>
+        <v>47.2</v>
       </c>
       <c r="J5">
-        <v>60.570999999999998</v>
+        <v>56.171999999999997</v>
       </c>
       <c r="K5">
-        <v>20.75</v>
+        <v>11.8</v>
       </c>
       <c r="L5">
-        <v>1.3129999999999999</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>16.738</v>
-      </c>
-      <c r="D6">
-        <v>11.32</v>
-      </c>
-      <c r="E6">
-        <v>11.048999999999999</v>
-      </c>
-      <c r="F6">
-        <v>19.7</v>
-      </c>
-      <c r="G6">
-        <v>110.116</v>
-      </c>
-      <c r="H6">
-        <v>39.133000000000003</v>
-      </c>
-      <c r="I6">
-        <v>58.5</v>
-      </c>
-      <c r="J6">
-        <v>64.412000000000006</v>
-      </c>
-      <c r="K6">
-        <v>22.95</v>
-      </c>
-      <c r="L6">
-        <v>1.216</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D7">
-        <v>11.08</v>
-      </c>
-      <c r="E7">
-        <v>14.24</v>
-      </c>
-      <c r="F7">
-        <v>5.96</v>
-      </c>
-      <c r="G7">
-        <v>160.19999999999999</v>
-      </c>
-      <c r="H7">
-        <v>47.54</v>
-      </c>
-      <c r="I7">
-        <v>34</v>
-      </c>
-      <c r="J7">
-        <v>74</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="M7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>17.597000000000001</v>
-      </c>
-      <c r="D8">
-        <v>11.082000000000001</v>
-      </c>
-      <c r="E8">
-        <v>14.234</v>
-      </c>
-      <c r="F8">
-        <v>25.393999999999998</v>
-      </c>
-      <c r="G8">
-        <v>153.04300000000001</v>
-      </c>
-      <c r="H8">
-        <v>43.844000000000001</v>
-      </c>
-      <c r="I8">
-        <v>63.49</v>
-      </c>
-      <c r="J8">
-        <v>70.384</v>
-      </c>
-      <c r="K8">
-        <v>21.28</v>
-      </c>
-      <c r="L8">
-        <v>1.911</v>
-      </c>
-      <c r="M8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9">
-        <v>16.855</v>
-      </c>
-      <c r="D9">
-        <v>7.7649999999999997</v>
-      </c>
-      <c r="E9">
-        <v>15.93</v>
-      </c>
-      <c r="F9">
-        <v>20.954999999999998</v>
-      </c>
-      <c r="G9">
-        <v>129.77000000000001</v>
-      </c>
-      <c r="H9">
-        <v>37.749000000000002</v>
-      </c>
-      <c r="I9">
-        <v>75.5</v>
-      </c>
-      <c r="J9">
-        <v>62.249000000000002</v>
-      </c>
-      <c r="K9">
-        <v>20.5</v>
-      </c>
-      <c r="L9">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="M9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>16.478000000000002</v>
-      </c>
-      <c r="D10">
-        <v>10.129</v>
-      </c>
-      <c r="E10">
-        <v>14.227</v>
-      </c>
-      <c r="F10">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="G10">
-        <v>51.06</v>
-      </c>
-      <c r="H10">
-        <v>17.885999999999999</v>
-      </c>
-      <c r="I10">
-        <v>48</v>
-      </c>
-      <c r="J10">
-        <v>18535.5</v>
-      </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>0.21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>12.112</v>
-      </c>
-      <c r="D11">
-        <v>7.0620000000000003</v>
-      </c>
-      <c r="E11">
-        <v>11.334</v>
-      </c>
-      <c r="F11">
-        <v>6.4859999999999998</v>
-      </c>
-      <c r="G11">
-        <v>53.695999999999998</v>
-      </c>
-      <c r="H11">
-        <v>17.939</v>
-      </c>
-      <c r="I11">
-        <v>36.72</v>
-      </c>
-      <c r="J11">
-        <v>26.812999999999999</v>
-      </c>
-      <c r="K11">
-        <v>11.2</v>
-      </c>
-      <c r="L11">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>12.112</v>
-      </c>
-      <c r="D12">
-        <v>7.0620000000000003</v>
-      </c>
-      <c r="E12">
-        <v>11.334</v>
-      </c>
-      <c r="F12">
-        <v>6.4859999999999998</v>
-      </c>
-      <c r="G12">
-        <v>53.695999999999998</v>
-      </c>
-      <c r="H12">
-        <v>17.939</v>
-      </c>
-      <c r="I12">
-        <v>36.72</v>
-      </c>
-      <c r="J12">
-        <v>26.812999999999999</v>
-      </c>
-      <c r="K12">
-        <v>11.2</v>
-      </c>
-      <c r="L12">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
   </sheetData>
